--- a/公司红黑表.xlsx
+++ b/公司红黑表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="爱尔兰" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>partly</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -973,7 +981,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -990,12 +998,18 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/公司红黑表.xlsx
+++ b/公司红黑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workshop\we_pte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A41B78-5A47-4032-8DA6-AAB96C729F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3216583A-C796-45A9-8830-84AE191DD78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="爱尔兰" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="新西兰" sheetId="3" r:id="rId3"/>
     <sheet name="冰岛" sheetId="5" r:id="rId4"/>
     <sheet name="芬兰" sheetId="4" r:id="rId5"/>
+    <sheet name="奥地利" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>bokun</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +150,84 @@
   </si>
   <si>
     <t>nets</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hays</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitpanda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job-boards.eu.greenhouse.io/bitpanda/jobs/4352363101?gh_src=6bfa1192teu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompuGroup Medical</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cgm.wd3.myworkdayjobs.com/de-DE/cgm/job/Linz/Sen-SW-Developer-Framework-Core_JR101941?source=LinkedIn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWE International AG</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Erste Digital</t>
+  </si>
+  <si>
+    <t>Entain</t>
+  </si>
+  <si>
+    <t>BAWAG Group</t>
+  </si>
+  <si>
+    <t>TeamViewer</t>
+  </si>
+  <si>
+    <t>Dynatrace</t>
+  </si>
+  <si>
+    <t>Porsche Holding</t>
+  </si>
+  <si>
+    <t>Regnology</t>
+  </si>
+  <si>
+    <t>KNAPP</t>
+  </si>
+  <si>
+    <t>ChargePoint</t>
+  </si>
+  <si>
+    <t>SKIDATA</t>
+  </si>
+  <si>
+    <t>AIT Austrian Institute of Technology</t>
+  </si>
+  <si>
+    <t>Tractive</t>
+  </si>
+  <si>
+    <t>https://join.com/companies/ssi-schaefer/14221481-software-developer-after-sales-w-m-d?pid=e65242534431eadcb0c9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSI SCHÄFER IT Solutions GmbH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.sage.hr/jobs/54f74bea-1467-45c4-9851-56dfcb495e5b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5G Systems GmbH</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +264,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,21 +291,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,7 +607,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -575,6 +668,11 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -619,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0B68FB-CB80-4E56-A191-8BCF3B3B13D6}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -704,4 +802,128 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC24749B-5321-438A-A3DC-E7D56B9601B9}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{57518CEF-E0AD-4CA1-BCF7-5B4B3CC66AA4}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{0DBED0AA-3FB1-4142-A112-59B3CA145FFA}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{3A194997-4C88-4240-8F50-D67F4C34A4DA}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{BEB55B32-84AC-42EB-836B-98B79CB523CA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/公司红黑表.xlsx
+++ b/公司红黑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workshop\we_pte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3216583A-C796-45A9-8830-84AE191DD78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A20ABF4-8F05-4F44-82B0-96E221BE2229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="爱尔兰" sheetId="1" r:id="rId1"/>
@@ -686,9 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7311D601-748D-4199-8D08-457A83A390D2}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -808,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC24749B-5321-438A-A3DC-E7D56B9601B9}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/公司红黑表.xlsx
+++ b/公司红黑表.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workshop\we_pte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A20ABF4-8F05-4F44-82B0-96E221BE2229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F0D51-66DC-40CA-B3E2-B6C78457968B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="爱尔兰" sheetId="1" r:id="rId1"/>
     <sheet name="爱沙尼亚" sheetId="2" r:id="rId2"/>
     <sheet name="新西兰" sheetId="3" r:id="rId3"/>
     <sheet name="冰岛" sheetId="5" r:id="rId4"/>
-    <sheet name="芬兰" sheetId="4" r:id="rId5"/>
-    <sheet name="奥地利" sheetId="6" r:id="rId6"/>
+    <sheet name="挪威" sheetId="7" r:id="rId5"/>
+    <sheet name="瑞典" sheetId="8" r:id="rId6"/>
+    <sheet name="芬兰" sheetId="4" r:id="rId7"/>
+    <sheet name="奥地利" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>bokun</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,13 +231,164 @@
   <si>
     <t>5G Systems GmbH</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ō</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URA</t>
+    </r>
+  </si>
+  <si>
+    <t>https://fa-exew-saasfaprod1.fa.ocs.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/3168?utm_medium=jobshare&amp;codes=JBLI&amp;utm_campaign=HR-talentacquisition-LinkedIn-13-26&amp;utm_medium=social-paid&amp;utm_source=linkedin.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stibo DX</t>
+  </si>
+  <si>
+    <t>Sportradar</t>
+  </si>
+  <si>
+    <t>Kahoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jottacloud </t>
+  </si>
+  <si>
+    <t>Lendo ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expleo </t>
+  </si>
+  <si>
+    <t>Euronext</t>
+  </si>
+  <si>
+    <t>CUJO</t>
+  </si>
+  <si>
+    <t>欧特克</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>甲骨文</t>
+  </si>
+  <si>
+    <t>Telia</t>
+  </si>
+  <si>
+    <t>dnb bank</t>
+  </si>
+  <si>
+    <t>Expleo Group</t>
+  </si>
+  <si>
+    <t>Regent AB</t>
+  </si>
+  <si>
+    <t>ComeOn Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Festina </t>
+  </si>
+  <si>
+    <t>Maandag</t>
+  </si>
+  <si>
+    <t>IPercept</t>
+  </si>
+  <si>
+    <t>visa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tavana IT </t>
+  </si>
+  <si>
+    <t>Stegra</t>
+  </si>
+  <si>
+    <t>HCLTech</t>
+  </si>
+  <si>
+    <t>Pricer</t>
+  </si>
+  <si>
+    <t>https://jobs.ashbyhq.com/filed</t>
+  </si>
+  <si>
+    <t>Swedbank</t>
+  </si>
+  <si>
+    <t>Relax Gaming Ltd</t>
+  </si>
+  <si>
+    <t>H&amp;M</t>
+  </si>
+  <si>
+    <t>LeoVegas Group</t>
+  </si>
+  <si>
+    <t>Icomera</t>
+  </si>
+  <si>
+    <t>ALTEN Sweden</t>
+  </si>
+  <si>
+    <t>Definitive Healthcare</t>
+  </si>
+  <si>
+    <t>Netlight</t>
+  </si>
+  <si>
+    <t>Telavox</t>
+  </si>
+  <si>
+    <t>OSTTRA</t>
+  </si>
+  <si>
+    <t>Blingdale</t>
+  </si>
+  <si>
+    <t>Aira</t>
+  </si>
+  <si>
+    <t>Telia   0531</t>
+  </si>
+  <si>
+    <t>nShift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stegra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valtech </t>
+  </si>
+  <si>
+    <t>Worldline</t>
+  </si>
+  <si>
+    <t>Scania Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Etraveli Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +426,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,6 +467,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7311D601-748D-4199-8D08-457A83A390D2}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -712,11 +875,263 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0B68FB-CB80-4E56-A191-8BCF3B3B13D6}">
-  <dimension ref="A1:A15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981B9753-D3AA-4A52-AF35-B759FE380AD1}">
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection sqref="A1:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE838C6-A932-4FC9-8E62-E2D027C1E8DF}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0B68FB-CB80-4E56-A191-8BCF3B3B13D6}">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -796,13 +1211,26 @@
         <v>28</v>
       </c>
     </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1" xr:uid="{32269709-BCCF-4E6D-ABEB-EF1D05EE410F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC24749B-5321-438A-A3DC-E7D56B9601B9}">
   <dimension ref="A1:C18"/>
   <sheetViews>

--- a/公司红黑表.xlsx
+++ b/公司红黑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workshop\we_pte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F0D51-66DC-40CA-B3E2-B6C78457968B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32398004-76B2-4259-AD02-0C3351544043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="爱尔兰" sheetId="1" r:id="rId1"/>
@@ -434,12 +434,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -459,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,6 +476,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,7 +756,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -760,7 +772,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -776,64 +788,64 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -851,19 +863,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -882,74 +894,74 @@
       <selection sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -964,158 +976,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE838C6-A932-4FC9-8E62-E2D027C1E8DF}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A30"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -1130,93 +1142,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0B68FB-CB80-4E56-A191-8BCF3B3B13D6}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1238,9 +1250,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1248,7 +1260,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1256,57 +1268,57 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1314,7 +1326,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1322,22 +1334,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>47</v>
       </c>

--- a/公司红黑表.xlsx
+++ b/公司红黑表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workshop\we_pte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32398004-76B2-4259-AD02-0C3351544043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8771470-FBF1-448E-ADA6-BF83B53ED0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>bokun</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,10 @@
   </si>
   <si>
     <t xml:space="preserve"> Etraveli Group</t>
+  </si>
+  <si>
+    <t>https://kyndryl.wd5.myworkdayjobs.com/en-US/KyndrylProfessionalCareers/userHome</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1140,90 +1144,93 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0B68FB-CB80-4E56-A191-8BCF3B3B13D6}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -1237,6 +1244,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A16" r:id="rId1" xr:uid="{32269709-BCCF-4E6D-ABEB-EF1D05EE410F}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{18D3851C-7623-43DF-8F8E-7E10C778299A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/公司红黑表.xlsx
+++ b/公司红黑表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workshop\we_pte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8771470-FBF1-448E-ADA6-BF83B53ED0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D44EFE-AD18-47E9-8104-17AE9E0BB8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +448,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,6 +492,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,7 +1159,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1180,8 +1192,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
     </row>

--- a/公司红黑表.xlsx
+++ b/公司红黑表.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workshop\we_pte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D44EFE-AD18-47E9-8104-17AE9E0BB8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496C0EB6-9DAB-42D8-9A01-B8B75E7D4017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="爱尔兰" sheetId="1" r:id="rId1"/>
-    <sheet name="爱沙尼亚" sheetId="2" r:id="rId2"/>
-    <sheet name="新西兰" sheetId="3" r:id="rId3"/>
-    <sheet name="冰岛" sheetId="5" r:id="rId4"/>
-    <sheet name="挪威" sheetId="7" r:id="rId5"/>
-    <sheet name="瑞典" sheetId="8" r:id="rId6"/>
-    <sheet name="芬兰" sheetId="4" r:id="rId7"/>
-    <sheet name="奥地利" sheetId="6" r:id="rId8"/>
+    <sheet name="德国" sheetId="9" r:id="rId2"/>
+    <sheet name="爱沙尼亚" sheetId="2" r:id="rId3"/>
+    <sheet name="新西兰" sheetId="3" r:id="rId4"/>
+    <sheet name="冰岛" sheetId="5" r:id="rId5"/>
+    <sheet name="挪威" sheetId="7" r:id="rId6"/>
+    <sheet name="瑞典" sheetId="8" r:id="rId7"/>
+    <sheet name="芬兰" sheetId="4" r:id="rId8"/>
+    <sheet name="奥地利" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="244">
   <si>
     <t>bokun</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +386,448 @@
   </si>
   <si>
     <t>https://kyndryl.wd5.myworkdayjobs.com/en-US/KyndrylProfessionalCareers/userHome</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">withsecure    </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://emp.jobylon.com/applications/jobs/293041/create/?utm_source=linkedin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cujo.com/careers/software-engineer-core-cloud-49-45a/?coref=1.11.p75_1516</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUJO AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ritchie Bros.   https://fa-exew-saasfaprod1.fa.ocs.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/3168?utm_medium=jobshare&amp;codes=JBLI&amp;utm_campaign=HR-talentacquisition-LinkedIn-13-26&amp;utm_medium=social-paid&amp;utm_source=linkedin.com</t>
+  </si>
+  <si>
+    <t>Hoxhunt https://careers.hoxhunt.com/jobs/5968039-software-engineer?utm_source=LinkedIn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolt https://job-boards.greenhouse.io/wolt/jobs/6693861</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>autodesk https://autodesk.wd1.myworkdayjobs.com/Ext/job/Norway---Oslo/Senior-Software-Engineer_25WD85636-1?src=JB-10065&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>mastercard https://careers.mastercard.com/us/en/job/MASRUSR249074EXTERNALENUS/Senior-Software-Development-Engineer?utm_source=linkedin&amp;utm_medium=phenom-feeds&amp;source=LINKEDIN</t>
+  </si>
+  <si>
+    <t>Euronext  https://hrhub.wd3.myworkdayjobs.com/Euronext_Career_Page/job/Oslo/Software-developer_R21790/apply?source=linkedin</t>
+  </si>
+  <si>
+    <t>Stibo DX https://gmlhr.teamtailor.com/jobs/5520805-senior-backend-engineer-in-stibo-dx</t>
+  </si>
+  <si>
+    <t>Expleo Group https://expleo-jobs-se-en.icims.com/jobs/33350/backend-developer/login?mobile=false&amp;width=1070&amp;height=500&amp;bga=true&amp;needsRedirect=false&amp;jan1offset=480&amp;jun1offset=480</t>
+  </si>
+  <si>
+    <t>Cognite https://jobs.lever.co/cognite/61ab7248-bfd9-4892-beb1-de8f348ae32b/apply?source=LinkedIn  有多个岗位。</t>
+  </si>
+  <si>
+    <t>D2L https://www.d2l.com/careers/jobs/software-developer-h5p-group/6911862/?gh_src=LinkedIn</t>
+  </si>
+  <si>
+    <t>Sportradar https://jobs.smartrecruiters.com/oneclick-ui/company/Sportradar/publication/33a13114-bb0c-4268-a691-3ae5c590c851?dcr_ci=Sportradar</t>
+  </si>
+  <si>
+    <t>Nordnet Bank AB https://career.nordnetab.com/jobs/3463710-backend-software-engineer?utm_source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Spotify https://jobs.lever.co/spotify/331db793-8da2-456e-bcaf-4e723fbf6155?lever-source=LinkedInJobs</t>
+  </si>
+  <si>
+    <t>visa https://jobs.smartrecruiters.com/Visa/744000060946549-software-engineer-open-banking?source=LinkedIn  visa有多个岗位</t>
+  </si>
+  <si>
+    <t>Telavox 不接受EU以外</t>
+  </si>
+  <si>
+    <t>Ericsson https://jobs.ericsson.com/careers/job/563121765169724?domain=ericsson.com&amp;jobPipeline=LinkedIn  多个岗位</t>
+  </si>
+  <si>
+    <t>Goldman Sachs https://hdpc.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/LateralHiring/job/147503?utm_medium=jobshare&amp;mode=job&amp;iis=LinkedIn 这个是助理岗位</t>
+  </si>
+  <si>
+    <t>Inter IKEA Group https://jobs.smartrecruiters.com/InterIKEAGroup/744000063287288-senior-software-engineer-java-ikea-range-experience</t>
+  </si>
+  <si>
+    <t>AMD https://careers.amd.com/careers-home/jobs/65152?lang=en-us 这个是python全栈</t>
+  </si>
+  <si>
+    <t>Definitive Healthcare https://job-boards.greenhouse.io/monocl/jobs/5540855004?gh_src=7eae19d84us</t>
+  </si>
+  <si>
+    <t>nShift https://careers.nshift.com/jobs/5921746-backend-software-engineer?utm_source=LinkedIn</t>
+  </si>
+  <si>
+    <t>LeoVegas Group https://jobs.jobvite.com/leovegas/job/oLc3vfwf?__jvst=Job%20Board&amp;__jvsd=LinkedIn</t>
+  </si>
+  <si>
+    <t>Relax Gaming Ltd https://www.relax-gaming.com/careers/position/java-developer--game-engine-359</t>
+  </si>
+  <si>
+    <t>Scania Group https://jobs.scania.com/job/S%C3%B6dert%C3%A4lje-Full-Stack-Java-Developers-Product-Development-IT-151-38/1203971201/</t>
+  </si>
+  <si>
+    <t>Clear Street https://job-boards.greenhouse.io/clearstreet/jobs/6364813</t>
+  </si>
+  <si>
+    <t>Keyfactor https://job-boards.greenhouse.io/keyfactorinc/jobs/5557293004?gh_src=2a7484b94us</t>
+  </si>
+  <si>
+    <t>Kindred Group plc https://careers.kindredgroup.com/jobs/vacancy/senior-java-developer-stockholm/10711/description/</t>
+  </si>
+  <si>
+    <t>Netlight https://jobs.lever.co/netlight/95de4ed4-a6aa-4b10-a880-e72476e032c9/apply?source=6</t>
+  </si>
+  <si>
+    <t>Swedbank https://jobs.swedbank.com/jobs/22735-fullstack-java-developer-in-corporate-payments?utm_source=LinkedIn</t>
+  </si>
+  <si>
+    <t>MAG Interactive https://career.maginteractive.com/jobs/6001672-senior-java-developer 主动提供担保</t>
+  </si>
+  <si>
+    <t>Worldline https://jobs.worldline.com/default/job/Sr-Java-Backend-Software-Engineer/297179-en_US</t>
+  </si>
+  <si>
+    <t>Odevo https://career.odevo.com/jobs/4965832-backend-developer-java?utm_source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Kivra https://jobs.kivra.dev/jobs/5981906-backend-developer-identity-team</t>
+  </si>
+  <si>
+    <t>Aira https://career.airahome.com/jobs/5361495-backend-developer-expansion</t>
+  </si>
+  <si>
+    <t>H&amp;M https://career.hm.com/se-en/job/045ac5a1-9d65-4056-a8c1-304ab75c52d9/</t>
+  </si>
+  <si>
+    <t>Resurs https://careers.resurs.com/jobs/3621656-senior-java-developer</t>
+  </si>
+  <si>
+    <t>Voi Technology  https://careers.voi.com/jobs/5243217-senior-backend-engineer  Golang 但不限语言</t>
+  </si>
+  <si>
+    <t>Sana https://sanalabs.com/careers?ashby_jid=301d4cca-0619-4a29-a80e-fe4f0d2a828b&amp;utm_source=GQgvLBmbrK#open-positions</t>
+  </si>
+  <si>
+    <t>Valtech https://careers.valtech.com/jobs/5143657-backend-developer?utm_source=LinkedInTTEUAPMENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nolimit City® https://career.nolimitcity.com/career/sweden/backend-developer.html </t>
+  </si>
+  <si>
+    <t>CoolPlanet 已发送询问</t>
+  </si>
+  <si>
+    <t>Deloitte 这个是中级岗位，查看是否有其他的senior岗位 https://deloitteie.wd3.myworkdayjobs.com/Experienced_Professionals/job/Dublin/Senior-Java-Developer--Engineering--Hybrid_114217?source=LinkedIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flywheel 已发送询问 </t>
+  </si>
+  <si>
+    <t>HubSpot 可查询其他岗位 https://boards.greenhouse.io/embed/job_app?token=6660446&amp;gh_src=240b46771&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Squarespace 多个岗位 https://boards.greenhouse.io/embed/job_app?token=6660446&amp;gh_src=240b46771&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>RELX https://relx.wd3.myworkdayjobs.com/relx/job/Dublin/Software-Engineer-III_R94552-1/apply?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Flutter Entertainment 明确表明CKAD 加分</t>
+  </si>
+  <si>
+    <t>Expleo Group 先投递北欧</t>
+  </si>
+  <si>
+    <t>Toast 可查询其他岗位 https://careers.toasttab.com/jobs/backend-software-engineer-ii-dublin-county-dublin-ireland?gh_jid=6930670&amp;gh_src=dbd19ebc1</t>
+  </si>
+  <si>
+    <t>Transact Campus https://transact-campus.breezy.hr/p/d02d60864c8a-software-engineer-java</t>
+  </si>
+  <si>
+    <t>CarTrawler https://corporate.cartrawler.com/en-gb/careers/opportunities/a6404d8c-306f-4858-9359-298f08b9d051/</t>
+  </si>
+  <si>
+    <t>Version 1 https://www.version1.com/careers/job-listing/java-developer-ref4893m/</t>
+  </si>
+  <si>
+    <t>Mastercard 先投递北欧</t>
+  </si>
+  <si>
+    <t>PTSB 6.12终结 https://my.corehr.com/pls/coreportal_ptsbp/erq_jobspec_version_4.display_form</t>
+  </si>
+  <si>
+    <t>Kaseya https://www.kaseya.com/careers/jobs/id/5555969004/?gh_jid=5555969004</t>
+  </si>
+  <si>
+    <t>Workday  多个岗位 https://workday.wd5.myworkdayjobs.com/Workday/job/Ireland-Dublin/Software-Development-Engineer---API-Gateways_JR-0095507?source=website_linkedin</t>
+  </si>
+  <si>
+    <t>IBM 多个岗位</t>
+  </si>
+  <si>
+    <t>Sony Interactive Entertainment https://job-boards.greenhouse.io/sonyinteractiveentertainmentglobal/jobs/5504416004?gh_src=c81250474us</t>
+  </si>
+  <si>
+    <t>MiFinity https://mifinity.bamboohr.com/careers/85</t>
+  </si>
+  <si>
+    <t>Johnson Controls    https://apply.johnsoncontrols.com/johnson-controls/apply/job_requisition_id/WD30229002?source=Job_Board_LinkedIn_Organic&amp;utm_source=Job_Board_LinkedIn_Organic</t>
+  </si>
+  <si>
+    <t>Stripe https://stripe.com/jobs/listing/backend-engineer-dublin-stripe-products/6852208?gh_src=73vnei</t>
+  </si>
+  <si>
+    <t>Gong https://job-boards.greenhouse.io/gongio/jobs/4395203006?gh_src=fd070d216us</t>
+  </si>
+  <si>
+    <t>Citi https://jobs.citi.com/job/dublin/senior-applications-developer-java/287/77281820256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McGregor Boyall </t>
+  </si>
+  <si>
+    <t>Canto https://job-boards.greenhouse.io/canto/jobs/4665270008?gh_jid=4665270008&amp;gh_src=8b33686f8us</t>
+  </si>
+  <si>
+    <t>ServiceNow https://careers.servicenow.com/jobs/744000063038301/senior-software-engineer/?trid=2d92f286-613b-4daf-9dfa-6340ffbecf73</t>
+  </si>
+  <si>
+    <t>PTC https://careers.ptc.com/careers/job/137468219484?domain=ptc.com&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>ReliaQuest https://reliaquest.wd5.myworkdayjobs.com/ReliaQuest_Careers/job/Tampa-FL/Senior-Software-Engineer_R13374?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>eBay https://jobs.ebayinc.com/us/en/job/EBAEBAUSR0065276EXTERNALENUS/Software-Engineer-Cloud-Platform?utm_source=linkedin&amp;utm_medium=phenom-feeds</t>
+  </si>
+  <si>
+    <t>PGIM https://pru.wd5.myworkdayjobs.com/Careers/job/Letterkenny-Ireland/Software-Engineer-Analyst---Investment-Operations---PGIM-Fixed-Income_R-120894-1?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Snowflake https://careers.snowflake.com/us/en/job/SNCOUS1B155129FA6D439B9893A51A1E6AFCA8EXTERNALENUS8C40EA83A7D34DF691A7CCB73954E02D/Production-Software-Engineer?utm_source=Q2P9NP2NNP&amp;utm_medium=phenom-feeds&amp;gh_src=ed5543a62</t>
+  </si>
+  <si>
+    <t>Google 搜下岗位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidewire Software  </t>
+  </si>
+  <si>
+    <t>Starling Bank https://apply.workable.com/starling-bank/j/4DE490E801/</t>
+  </si>
+  <si>
+    <t>Fidelity Investments https://jobs.fidelity.com/ie/jobs/2111383/senior-full-stack-engineer/?source=LinkedIn_Job+Boards</t>
+  </si>
+  <si>
+    <t>Rapid7 多个岗位</t>
+  </si>
+  <si>
+    <t>Equifax 搜下岗位</t>
+  </si>
+  <si>
+    <t>Charles River Development https://statestreet.wd1.myworkdayjobs.com/zh-CN/Global/job/Dublin-2-Ireland/Full-Stack-Engineer--Charles-River-Development--Senior-Associate_R-772244-1?source=APPLICANT_SOURCE-LINKEDIN</t>
+  </si>
+  <si>
+    <t>Zinkworks https://zinkworks.teamtailor.com/jobs/5192137-senior-software-engineer?utm_source=LinkedIn</t>
+  </si>
+  <si>
+    <t>germany</t>
+  </si>
+  <si>
+    <t>Deutsche Bank https://careers.db.com/professionals/search-roles/?test.html%3Fkid%3D=linkedinjobwrap#/professional/job/64001</t>
+  </si>
+  <si>
+    <t>Lightspeed Commerce https://job-boards.greenhouse.io/lightspeedhq/jobs/6826435?gh_src=ra52sj1</t>
+  </si>
+  <si>
+    <t>idealo internet GmbH https://jobs.idealo.com/o/software-engineer-mfx-java-aws?utm_source=linkedin&amp;utm_medium=jobad&amp;utm_campaign=tsep&amp;source=linkedin</t>
+  </si>
+  <si>
+    <t>Hapag-Lloyd AG https://www.hapag-lloyd.com/en/company/career/vacancies/jobsearch.html?igbTracker=798996983#en/job/1107?utm_medium=jobboard&amp;utm_source={jobBoardName}</t>
+  </si>
+  <si>
+    <t>N26 https://n26.com/en-eu/careers/positions/6873281/apply?gh_jid=6873281&amp;gh_src=71b7b4e01</t>
+  </si>
+  <si>
+    <t>Snowflake https://careers.snowflake.com/us/en/job/SNCOUS35FA6DDB43774FF29167896E865F6C9CEXTERNALENUSD762E5145AB549D19B652113352E4CF6/Software-Engineer-Java-Platform?utm_source=Q2P9NP2NNP&amp;utm_medium=phenom-feeds&amp;gh_src=ed5543a62</t>
+  </si>
+  <si>
+    <t>GK Software SE https://careers.gk-software.com/job/Berlin-Java-Developer-%28mfd%29-Product-10117/1156719055/</t>
+  </si>
+  <si>
+    <t>Kleinanzeigen https://marketplaces.wd3.myworkdayjobs.com/External_Careers/job/Berlin/Senior-software-engineer_JR008538/apply?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Rockwell Automation https://rockwellautomation.wd1.myworkdayjobs.com/zh-CN/External_Rockwell_Automation/job/Karlsruhe-Germany/SENIOR-ENGINEER--SOFTWARE---Java_R25-2571?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Delivery Hero  https://careers.deliveryhero.com/jobs?q=java&amp;options=248&amp;page=1</t>
+  </si>
+  <si>
+    <t>Zalando 先申请芬</t>
+  </si>
+  <si>
+    <t>Honeywell https://careers.honeywell.com/en/sites/Honeywell/job/HRD262571</t>
+  </si>
+  <si>
+    <t>Holidu https://www.holidu.com/careers/backend-developer-java-or-kotlin-financial-systems-all-genders?src=Linkedin</t>
+  </si>
+  <si>
+    <t>1GLOBAL https://www.1global.com/vacancy/CFFF621E3A</t>
+  </si>
+  <si>
+    <t>SumUp https://www.sumup.com/careers/positions/berlin-germany/backend/senior-backend-engineer-bank/7620013002/?gh_jid=7620013002&amp;gh_src=1e0ad71d2</t>
+  </si>
+  <si>
+    <t>Elsevier https://relx.wd3.myworkdayjobs.com/zh-CN/ElsevierJobs/job/Frankfurt/Software-Engineer--m-f-d-_R95447/apply?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Pax8 https://www.pax8.com/en-eu/careers/job-openings/?gh_jid=5436594004&amp;gh_src=b2cb92ee4us</t>
+  </si>
+  <si>
+    <t>mobile.de https://marketplaces.wd3.myworkdayjobs.com/External_Careers/job/Berlin/XMLNAME--Senior--Backend-Engineer--m-f-d-_JR009116/apply?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>B. Braun Group https://jobs.bbraun.com/job/Back-End-Developer-&amp;-DevOps-Engineer-%28fmd%29/3243-de_DE</t>
+  </si>
+  <si>
+    <t>Nexus Group – Global https://career5.successfactors.eu/careers?company=bbraunprd</t>
+  </si>
+  <si>
+    <t>Axel Springer National Media &amp; Tech GmbH &amp; Co. KG  https://career.axelspringer.com/de/job/backend-engineer-java-kotlin-2?trid=2d92f286-613b-4daf-9dfa-6340ffbecf73</t>
+  </si>
+  <si>
+    <t>software4production GmbH https://join.com/companies/s4p/14290263-jakarta-java-ee-backend-software-developer-f-m-d?pid=e65242534431eadcb0c9</t>
+  </si>
+  <si>
+    <t>Swisslog https://career55.sapsf.eu/careers?company=kukagroup</t>
+  </si>
+  <si>
+    <t>Miro https://miro.com/careers/vacancy/8013930002/?gh_jid=8013930002</t>
+  </si>
+  <si>
+    <t>Navan https://navan.com/careers/openings/6447681?gh_jid=6447681</t>
+  </si>
+  <si>
+    <t>AND-E https://recruitingapp-5477.de.umantis.com/Vacancies/499/Description/2?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>STACKIT https://schwarz.jobs.schwarz/stackit/job/Heilbronn-%28Senior%29-Software-Engineer-Identity-and-Access-Management-STACKIT-%28mfd%29-1/1205432101/?feedId=264801</t>
+  </si>
+  <si>
+    <t>MERKUR GROUP https://gauselmann.softgarden.io/applications/4a6eca30-70d9-4b01-a325-ab586a8e63a5?1&amp;isEditMode=false&amp;isNew=true&amp;l=de</t>
+  </si>
+  <si>
+    <t>CarOnSale https://job-boards.eu.greenhouse.io/caronsale/jobs/4601308101?gh_src=LinkedIn</t>
+  </si>
+  <si>
+    <t>Staffbase https://staffbase.com/jobs/link/8030976002/?gh_jid=8030976002&amp;gh_src=915a20462us</t>
+  </si>
+  <si>
+    <t>Computer Futures https://www.aplitrak.com/?adid=bW56ci4xNDY3Ny4xNTUwQHN0aHJlZXVzYTIuYXBsaXRyYWsuY29t</t>
+  </si>
+  <si>
+    <t>FERCHAU</t>
+  </si>
+  <si>
+    <t>gridX https://gridx.jobs.personio.de/job/2122950?language=en&amp;display=en</t>
+  </si>
+  <si>
+    <t>On https://culture.on.com/jobs/6960501/?gh_src=65baa6851us</t>
+  </si>
+  <si>
+    <t>SAP LeanIX https://join.com/companies/leanix/14260673-senior-backend-engineer-f-m-d?pid=e65242534431eadcb0c9</t>
+  </si>
+  <si>
+    <t>Snowprint Studios https://career.snowprintstudios.com/jobs/6018802-senior-backend-developer</t>
+  </si>
+  <si>
+    <t>Superchat https://join.com/companies/superchat/14256059-senior-backend-engineer-m-f-d?pid=e65242534431eadcb0c9</t>
+  </si>
+  <si>
+    <t>SEEBURGER https://careers.seeburger.com/job/Bretten-Fullstack-Developer-%28all-genders%29-Bretten-75015/1143619601/</t>
+  </si>
+  <si>
+    <t>Datavant Ireland  https://www.datavant.com/about/careers/open-roles-ireland/job?job_id=4604507008&amp;gh_src=5fd7fdae8us</t>
+  </si>
+  <si>
+    <t>Whatnot https://job-boards.greenhouse.io/whatnot/jobs/5556074004?+gh_src=d18daf814us</t>
+  </si>
+  <si>
+    <t>KKR https://www.kkr.com/careers/career-opportunities/post?gh_jid=5560010004&amp;gh_src=LinkedInJW</t>
+  </si>
+  <si>
+    <t>Thrive Global https://ats.rippling.com/thriveglobal/jobs/d502dbbb-d352-4116-b1dd-faed07f3f324?jobSite=LinkedIn</t>
+  </si>
+  <si>
+    <t>Rapid7  https://careers.rapid7.com/jobs/software-engineer-ii-dublin-ireland-0b2c8f91-0137-4379-9ed5-51cac65bf514?source=linkedin&amp;utm_source=linkedin&amp;src=LinkedIn_Jobs</t>
+  </si>
+  <si>
+    <t>Tata Consultancy Services https://www.candidatemanager.net/cm/p/pJobDetails.aspx?mid=CXAZAZB&amp;sid=YYAZD&amp;jid=BAZBAZYUB&amp;a=dwVoVYfJngc%253d</t>
+  </si>
+  <si>
+    <t>ACI Worldwide https://ebwg.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX/job/15771?utm_medium=jobshare</t>
+  </si>
+  <si>
+    <t>Motorola  https://motorolasolutions.wd5.myworkdayjobs.com/en-US/Careers/job/Cork-Ireland---Business-CNTR-ZEI16/Software-Engineer_R48064-1/apply/autofillWithResume?source=Linkedin</t>
+  </si>
+  <si>
+    <t>Signify Health Ireland, part of CVS Health  https://job-boards.greenhouse.io/signifyhealthireland/jobs/6597303003?gh_src=2da8c6923us</t>
+  </si>
+  <si>
+    <t>LexisNexis Risk Solutions https://relx.wd3.myworkdayjobs.com/zh-CN/RiskSolutions/job/Dublin/Software-Engineering-Lead_R88400-1</t>
+  </si>
+  <si>
+    <t>Intercom https://job-boards.greenhouse.io/intercom/jobs/5082494?gh_src=m3lq2e1</t>
+  </si>
+  <si>
+    <t>Contentful https://job-boards.greenhouse.io/contentful/jobs/6951348?gh_src=ro5km41</t>
+  </si>
+  <si>
+    <t>Flutter Entertainment https://careers.fluttergroup.com/jobs/jr126695/senior-software-engineer-scala-hybrid-dublin/?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Oracle https://eeho.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/jobsearch/job/292403?utm_medium=jobboard&amp;utm_source=linkedin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google https://careers.google.com/jobs/results/116893167160042182-software-engineer-ii/?src=Online/LinkedIn/linkedin_us&amp;utm_source=linkedin&amp;utm_medium=jobposting&amp;utm_campaign=contract </t>
+  </si>
+  <si>
+    <t>Resmed https://resmed.wd3.myworkdayjobs.com/zh-CN/ResMed_External_Careers/job/Dublin-Ireland/Senior-Cloud-Software-Engineer_JR_039405-1?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Datadog https://careers.datadoghq.com/detail/6646703/?gh_jid=6646703&amp;gh_src=8363eca61</t>
+  </si>
+  <si>
+    <t>Affinidi https://job-boards.greenhouse.io/affinidi/jobs/6518639003</t>
+  </si>
+  <si>
+    <t>ESW https://job-boards.greenhouse.io/esw/jobs/7979482002?gh_src=2ed72c412</t>
+  </si>
+  <si>
+    <t>Ericsson https://jobs.ericsson.com/careers/job/563121765230593?domain=ericsson.com&amp;jobPipeline=LinkedIn</t>
+  </si>
+  <si>
+    <t>Jones Engineering https://candidate.hr-manager.net/ApplicationInit.aspx?cid=2017&amp;ProjectId=144577&amp;DepartmentId=19010&amp;MediaId=5</t>
+  </si>
+  <si>
+    <t>Daon https://daoninc.bamboohr.com/careers/353</t>
+  </si>
+  <si>
+    <t>ALTEN 先申请瑞典</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -768,11 +1211,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16934ACA-05B5-436A-B04B-390DE9F2051D}">
+  <dimension ref="A1:A87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -780,23 +1768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -804,64 +1776,64 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -873,113 +1845,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7311D601-748D-4199-8D08-457A83A390D2}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981B9753-D3AA-4A52-AF35-B759FE380AD1}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -989,163 +1875,434 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE838C6-A932-4FC9-8E62-E2D027C1E8DF}">
-  <dimension ref="A1:A30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981B9753-D3AA-4A52-AF35-B759FE380AD1}">
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE838C6-A932-4FC9-8E62-E2D027C1E8DF}">
+  <dimension ref="A1:A64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1154,37 +2311,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0B68FB-CB80-4E56-A191-8BCF3B3B13D6}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1192,64 +2349,95 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1257,12 +2445,14 @@
   <hyperlinks>
     <hyperlink ref="A16" r:id="rId1" xr:uid="{32269709-BCCF-4E6D-ABEB-EF1D05EE410F}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{18D3851C-7623-43DF-8F8E-7E10C778299A}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{870184B2-0051-49BD-9246-BC382B72AA1C}"/>
+    <hyperlink ref="C19" r:id="rId4" xr:uid="{497BFDDC-1F40-4502-82AE-F5B40E2AD091}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC24749B-5321-438A-A3DC-E7D56B9601B9}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1270,9 +2460,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1280,7 +2470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1288,57 +2478,57 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1346,7 +2536,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1354,22 +2544,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>

--- a/公司红黑表.xlsx
+++ b/公司红黑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workshop\we_pte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FF6CAC-33DD-44E1-8418-51F5C83D4D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DF4892-3D80-47F2-B6A3-1424E27C0404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="爱尔兰" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="259">
   <si>
     <t>bokun</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,9 +398,6 @@
     <t>Flutter Entertainment 明确表明CKAD 加分</t>
   </si>
   <si>
-    <t>Expleo Group 先投递北欧</t>
-  </si>
-  <si>
     <t>Toast 可查询其他岗位 https://careers.toasttab.com/jobs/backend-software-engineer-ii-dublin-county-dublin-ireland?gh_jid=6930670&amp;gh_src=dbd19ebc1</t>
   </si>
   <si>
@@ -672,9 +669,6 @@
   </si>
   <si>
     <t>Jones Engineering https://candidate.hr-manager.net/ApplicationInit.aspx?cid=2017&amp;ProjectId=144577&amp;DepartmentId=19010&amp;MediaId=5</t>
-  </si>
-  <si>
-    <t>Daon https://daoninc.bamboohr.com/careers/353</t>
   </si>
   <si>
     <t>ALTEN 先申请瑞典</t>
@@ -883,6 +877,57 @@
   <si>
     <t>Etraveli Group</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expleo Group 先投递北欧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daon https://daoninc.bamboohr.com/careers/353</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zinkworks https://zinkworks.teamtailor.com/jobs/5192137-senior-software-engineer?utm_source=LinkedIn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>idealo internet GmbH https://jobs.idealo.com/o/software-engineer-reach-enablement-fmx?utm_source=linkedin&amp;utm_medium=jobad&amp;utm_campaign=tsep&amp;source=linkedin</t>
+  </si>
+  <si>
+    <t>Delivery Hero  https://careers.deliveryhero.com/job/engineer-ii-java-kotlin-logistics-pricing-in-berlin-germany-jid-5417</t>
+  </si>
+  <si>
+    <t>osapiens https://careers.osapiens.com/postings/83e41c0b-4e8c-48d0-b536-55b891adc929/applications/new?utm_medium=job_board&amp;utm_source=linkedIn</t>
+  </si>
+  <si>
+    <t>Redcare Pharmacy https://www.redcare-pharmacy.com/careers/open-jobs/details/744000059634665?trid=2d92f286-613b-4daf-9dfa-6340ffbecf73</t>
+  </si>
+  <si>
+    <t>Secfix https://jobs.ashbyhq.com/secfix/2497f701-7476-47ac-be7a-ff70805bf5c9/application?utm_source=linkedinpaid</t>
+  </si>
+  <si>
+    <t>Playnetic https://careers.playnetic.com/jobs/6036151-game-server-engineer-java</t>
+  </si>
+  <si>
+    <t>ResearchGate https://jobs.lever.co/researchgate/fa237067-fde8-4c82-96b3-5ab9bb292727</t>
+  </si>
+  <si>
+    <t>Lightspeed Commerce https://job-boards.greenhouse.io/lightspeedhq/jobs/6903663?gh_src=ra52sj1</t>
+  </si>
+  <si>
+    <t>THE CT ENGINEERING GROUP https://ctingenieure.zohorecruit.eu/jobs/Careers/17217000011635268/Software-Engineer-m-w-d---Mission-Systems?source=LinkedIn-Premium</t>
+  </si>
+  <si>
+    <t>Zühlke Group https://zuehlke.wd3.myworkdayjobs.com/en-US/Zuhlke-Careers/job/Eschborn/Java-Fullstack-Engineer--all-genders-_JR100297-1?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Mindrift https://apply.workable.com/toloka-ai/j/6D635EAA01/?utm_source=mindriftai&amp;utm_medium=website&amp;utm_campaign=roles</t>
+  </si>
+  <si>
+    <t>Nexxen https://job-boards.greenhouse.io/nexxen/jobs/8027236002</t>
+  </si>
+  <si>
+    <t>Impower GmbH https://join.com/companies/impower/14304068-senior-ai-developer-m-f-d-remote-or-hybrid-in-munich-or-cluj?pid=e65242534431eadcb0c9</t>
   </si>
 </sst>
 </file>
@@ -1289,205 +1334,205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1499,332 +1544,402 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16934ACA-05B5-436A-B04B-390DE9F2051D}">
-  <dimension ref="A1:A91"/>
+  <dimension ref="A1:A109"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:A109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1959,7 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1860,64 +1975,64 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1937,19 +2052,19 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1965,119 +2080,119 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="6" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+    <row r="9" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2090,305 +2205,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE838C6-A932-4FC9-8E62-E2D027C1E8DF}">
   <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2405,29 +2518,29 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2435,67 +2548,67 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
@@ -2503,7 +2616,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
@@ -2511,17 +2624,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -2546,9 +2659,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -2556,7 +2669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -2564,57 +2677,57 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,7 +2735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -2630,22 +2743,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
